--- a/python基础知识/写入excel示例.xlsx
+++ b/python基础知识/写入excel示例.xlsx
@@ -388,7 +388,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="n">
-        <v>43304.89866825331</v>
+        <v>43305.84398491898</v>
       </c>
     </row>
   </sheetData>

--- a/python基础知识/写入excel示例.xlsx
+++ b/python基础知识/写入excel示例.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="第一个工作簿" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -388,7 +388,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="n">
-        <v>43305.84398491898</v>
+        <v>43305.85346891204</v>
       </c>
     </row>
   </sheetData>

--- a/python基础知识/写入excel示例.xlsx
+++ b/python基础知识/写入excel示例.xlsx
@@ -388,7 +388,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="n">
-        <v>43305.85346891204</v>
+        <v>43305.85390097222</v>
       </c>
     </row>
   </sheetData>
